--- a/ky/downloads/data-excel/16.6.2.1a.xlsx
+++ b/ky/downloads/data-excel/16.6.2.1a.xlsx
@@ -8152,11 +8152,9 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8168,7 +8166,7 @@
     <col min="9" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -8182,7 +8180,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -8195,7 +8193,7 @@
       <c r="D2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8205,7 +8203,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8239,8 +8237,11 @@
       <c r="K4" s="23">
         <v>2022</v>
       </c>
+      <c r="L4" s="23">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -8274,8 +8275,11 @@
       <c r="K5" s="24">
         <v>35.305353068702679</v>
       </c>
+      <c r="L5" s="24">
+        <v>33.991563806511245</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -8309,8 +8313,11 @@
       <c r="K6" s="25">
         <v>49.31549563692068</v>
       </c>
+      <c r="L6" s="25">
+        <v>43.352267904134116</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
@@ -8344,8 +8351,11 @@
       <c r="K7" s="25">
         <v>45.444207273635158</v>
       </c>
+      <c r="L7" s="25">
+        <v>46.016552065013244</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
@@ -8379,8 +8389,11 @@
       <c r="K8" s="25">
         <v>46.810603774236895</v>
       </c>
+      <c r="L8" s="25">
+        <v>57.950845675564537</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
@@ -8414,8 +8427,11 @@
       <c r="K9" s="25">
         <v>45.450816127137941</v>
       </c>
+      <c r="L9" s="25">
+        <v>46.481788079470263</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
@@ -8449,8 +8465,11 @@
       <c r="K10" s="25">
         <v>50.474514452886076</v>
       </c>
+      <c r="L10" s="25">
+        <v>45.080578284701389</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -8484,8 +8503,11 @@
       <c r="K11" s="25">
         <v>40.14796186663478</v>
       </c>
+      <c r="L11" s="25">
+        <v>39.506289942950417</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
@@ -8519,8 +8541,11 @@
       <c r="K12" s="25">
         <v>29.735683954543184</v>
       </c>
+      <c r="L12" s="25">
+        <v>26.964612178240138</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -8554,8 +8579,11 @@
       <c r="K13" s="25">
         <v>12.912087912087852</v>
       </c>
+      <c r="L13" s="25">
+        <v>15.46142526802614</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
@@ -8589,8 +8617,11 @@
       <c r="K14" s="26">
         <v>41.117034465658314</v>
       </c>
+      <c r="L14" s="26">
+        <v>33.453947368420813</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
